--- a/data/0. old data/0. raw/2016/companies/takeda.xlsx
+++ b/data/0. old data/0. raw/2016/companies/takeda.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="539">
   <si>
     <t>name</t>
   </si>
@@ -1439,9 +1439,6 @@
   </si>
   <si>
     <t>Effingerstrasse 33</t>
-  </si>
-  <si>
-    <t>SAKK - Schweizerische Arbeitsgemeinschaft für Klinische Krebsforschung - Shcweizerische Pädiatrische Onkologie Gruppe</t>
   </si>
   <si>
     <t>Schulthess Klinik-Rheumatologie</t>
@@ -2255,9 +2252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2383,7 +2380,7 @@
         <v>237</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>136</v>
@@ -2472,7 +2469,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>180</v>
@@ -16290,7 +16287,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>180</v>
@@ -16319,7 +16316,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>179</v>
@@ -16328,7 +16325,7 @@
         <v>136</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E191" s="7"/>
       <c r="G191" s="26"/>
@@ -16380,7 +16377,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>204</v>
@@ -16410,7 +16407,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>184</v>
@@ -16419,7 +16416,7 @@
         <v>136</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="26"/>
@@ -16440,7 +16437,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>179</v>
@@ -16470,7 +16467,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>221</v>
@@ -16509,7 +16506,7 @@
         <v>136</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="26"/>
@@ -16560,7 +16557,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>207</v>
@@ -16569,7 +16566,7 @@
         <v>136</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="26"/>
@@ -16590,7 +16587,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>181</v>
@@ -16599,7 +16596,7 @@
         <v>136</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="26"/>
@@ -16620,16 +16617,16 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="C201" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="26"/>
@@ -16650,16 +16647,16 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="C202" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="26">
@@ -16680,16 +16677,16 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="C203" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="26"/>
@@ -16712,7 +16709,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>203</v>
@@ -16721,7 +16718,7 @@
         <v>136</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="26">
@@ -16742,7 +16739,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>203</v>
@@ -16751,7 +16748,7 @@
         <v>136</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="26"/>
@@ -16772,7 +16769,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>189</v>
@@ -16781,7 +16778,7 @@
         <v>136</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="26">
@@ -16802,16 +16799,16 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="C207" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D207" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="26"/>
@@ -16834,16 +16831,16 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="C208" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="26"/>
@@ -16864,16 +16861,16 @@
     </row>
     <row r="209" spans="1:1025">
       <c r="A209" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="C209" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="26"/>
@@ -16898,16 +16895,16 @@
     </row>
     <row r="210" spans="1:1025">
       <c r="A210" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B210" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="26"/>
@@ -16930,7 +16927,7 @@
     </row>
     <row r="211" spans="1:1025" s="27" customFormat="1">
       <c r="A211" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B211" s="27" t="s">
         <v>231</v>
@@ -16939,7 +16936,7 @@
         <v>136</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F211" s="28"/>
       <c r="G211" s="28"/>
@@ -17972,7 +17969,7 @@
     </row>
     <row r="212" spans="1:1025">
       <c r="A212" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>204</v>
@@ -17981,7 +17978,7 @@
         <v>136</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="26"/>
@@ -18006,7 +18003,7 @@
     </row>
     <row r="213" spans="1:1025">
       <c r="A213" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>204</v>
@@ -18015,7 +18012,7 @@
         <v>136</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="26"/>
@@ -18047,7 +18044,7 @@
         <v>136</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="26"/>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="215" spans="1:1025">
       <c r="A215" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>179</v>
@@ -18083,7 +18080,7 @@
         <v>136</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="26"/>
@@ -18106,7 +18103,7 @@
     </row>
     <row r="216" spans="1:1025">
       <c r="A216" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>179</v>
@@ -18115,7 +18112,7 @@
         <v>136</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="26"/>
@@ -18142,7 +18139,7 @@
     </row>
     <row r="217" spans="1:1025">
       <c r="A217" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>179</v>
@@ -18176,7 +18173,7 @@
     </row>
     <row r="218" spans="1:1025">
       <c r="A218" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>179</v>
@@ -18215,7 +18212,7 @@
         <v>136</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="26"/>
@@ -18236,7 +18233,7 @@
     </row>
     <row r="220" spans="1:1025">
       <c r="A220" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>180</v>
@@ -18266,7 +18263,7 @@
     </row>
     <row r="221" spans="1:1025">
       <c r="A221" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>179</v>
@@ -18326,7 +18323,7 @@
     </row>
     <row r="223" spans="1:1025">
       <c r="A223" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>179</v>
@@ -18367,7 +18364,7 @@
         <v>136</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E224" s="7"/>
       <c r="F224" s="26"/>
@@ -18397,7 +18394,7 @@
         <v>136</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="26">
@@ -18420,7 +18417,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>179</v>
@@ -18454,7 +18451,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>179</v>
@@ -18484,7 +18481,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>179</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>179</v>
@@ -18544,7 +18541,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>179</v>
@@ -18576,7 +18573,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>179</v>
@@ -18674,7 +18671,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>204</v>
@@ -18710,7 +18707,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>204</v>
@@ -18740,7 +18737,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>204</v>
@@ -18770,7 +18767,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>204</v>
@@ -18800,7 +18797,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>314</v>
@@ -18809,7 +18806,7 @@
         <v>136</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="26">
@@ -18830,7 +18827,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>179</v>
@@ -18925,7 +18922,7 @@
         <v>125</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>136</v>
